--- a/biology/Botanique/Les_Vendanges_(Bernard_Clavel)/Les_Vendanges_(Bernard_Clavel).xlsx
+++ b/biology/Botanique/Les_Vendanges_(Bernard_Clavel)/Les_Vendanges_(Bernard_Clavel).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Vendanges est un ouvrage sous forme d'album alternant textes, peintures et photos de l'écrivain Bernard Clavel, paru aux éditions Hoëbeke en 2000.
@@ -512,7 +524,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans ce livre-album, Bernard Clavel nous emmène dans un univers qu'il connaît bien, celui du vin et des vendanges, dans son Jura natal où il a dans sa jeunesse soigné la vigne du côté de Château-Chalon, ce petit bourg au-dessus de Lons-le-Saunier qu'il habitera par la suite, dans ses romans également, et en particulier L'Espagnol où la vie tourne autour de la vigne ou Les Grands Malheurs.
 De son côté, la photographe Janine Niepce connaît bien le monde rural auquel elle a consacré de nombreux reportages, en particulier ceux qu'elle a réalisés sur les vendanges. Avant que la mécanisation, les vendanges étaient l'événement de l'année : une tâche accomplie en commun par tous les habitants de la commune et elle nous restitue ces moments aujourd'hui disparus. Ils retracent les difficultés, la pénibilité du travail quand 'bouilles' et 'sapines' étaient chargées sur des voitures à cheval, et l'importance du pressoir, du travail de cave où lentement le vin s'élaborait.
@@ -545,7 +559,9 @@
           <t>Structure et contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« En écho aux images de Janine Niepce, Bernard Clavel trouve les mots justes pour restituer l'ambiance disparue » des vendanges d'antan. Clavel parle de son expérience dans le vignoble du Revermont jurassien qui donne ce vin jaune si caractéristique de ce terroir. Le réfugié espagnol, le vieux Clopineau « boiteux et tordu comme un cep de vingt ans », auxquels il fait allusion, ce sont les personnages de son roman L'Espagnol. Le vigneron à cette époque était un homme polyvalent, tour à tour bûcheron pour les piquets, arracheur des vieux ceps, laboureur, planteur par 'provignage', tailleur mais juste ce qu'il fallait. 
 Les plus jeunes 'fagotaient' en rassemblant les sarments qu'on faisait flamber lors des alertes au gel pour faire fondre la gelée déposée sur les bourgeons. Il fallait aussi sarcler, et fumer la terre, sulfater avec la lourde 'bouille' dans le dos, quand tout bleuissait, de ce bleu-vert à l'odeur un peu écœurante qu'avait la bouillie bordelaise. Restait toujours dans les esprits ce souci qu'exprimait ainsi la patronne : « Tant que la vendange n'est pas dans la cave, on ne vend pas le vin ! »
